--- a/decpiher.xlsx
+++ b/decpiher.xlsx
@@ -543,7 +543,7 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,10 +570,10 @@
         <f>F1/$F$27</f>
         <v>0.12932501418037437</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>19</v>
       </c>
     </row>
@@ -620,11 +620,11 @@
         <f t="shared" si="0"/>
         <v>8.5365853658536592E-2</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>6</v>
+      <c r="J3" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -653,7 +653,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1">
@@ -699,7 +699,7 @@
         <v>46</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -720,11 +720,11 @@
         <f t="shared" si="0"/>
         <v>6.4378899602949513E-2</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="6" t="s">
-        <v>13</v>
+      <c r="J7" s="7" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -745,11 +745,11 @@
         <f t="shared" si="0"/>
         <v>6.4378899602949513E-2</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>23</v>
+      <c r="J8" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -774,7 +774,7 @@
         <v>47</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -824,7 +824,7 @@
         <v>42</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -849,7 +849,7 @@
         <v>44</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -895,10 +895,10 @@
         <f t="shared" si="0"/>
         <v>2.3823028927963699E-2</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="J14" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -924,7 +924,7 @@
         <v>48</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1004,7 +1004,7 @@
         <v>50</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
@@ -1052,11 +1052,11 @@
         <f t="shared" si="0"/>
         <v>1.559841179807147E-2</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="I20" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="J20" s="6" t="s">
-        <v>14</v>
+      <c r="J20" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="L20" s="3"/>
     </row>
@@ -1082,7 +1082,7 @@
         <v>29</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1128,11 +1128,11 @@
         <f t="shared" si="0"/>
         <v>3.4032898468519569E-3</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="I23" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="J23" s="6" t="s">
-        <v>5</v>
+      <c r="J23" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1153,10 +1153,10 @@
         <f t="shared" si="0"/>
         <v>1.1344299489506524E-3</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="I24" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="J24" s="6" t="s">
+      <c r="J24" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1178,11 +1178,11 @@
         <f t="shared" si="0"/>
         <v>1.1344299489506524E-3</v>
       </c>
-      <c r="I25" s="6" t="s">
+      <c r="I25" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J25" s="6" t="s">
-        <v>11</v>
+      <c r="J25" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -1203,11 +1203,11 @@
         <f t="shared" si="0"/>
         <v>5.6721497447532619E-4</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="I26" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="J26" s="6" t="s">
-        <v>9</v>
+      <c r="J26" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
